--- a/Logboek.xlsx
+++ b/Logboek.xlsx
@@ -16,10 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t xml:space="preserve">                                             Datum</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Werkzaamheden</t>
   </si>
@@ -27,16 +24,28 @@
     <t>Mail gestuurd naar groepsgenoten en een afspraak geregeld.</t>
   </si>
   <si>
-    <t>Projecthandleiding doorgelezen.</t>
-  </si>
-  <si>
     <t>Afspraak gehad met Wouter: 'taakverdeling georganiseerd (benoemt tot Scrummaster), verdere uitleg project, nieuwe afspraak gemaakt voor 13-10-2014 14:00', begin gemaakt analyse (volledige UCS, begin KD)</t>
   </si>
   <si>
     <t>Ontmoetings gesprek gehad met groepsgenoten, nieuwe afspraak 12-10-2014 9:00.</t>
   </si>
   <si>
-    <t>Analyse voortgezet (KD), afspraak met Wouter 'KD bekeken, tips gekregen' nieuwe afspraak 17-10-2014 11:00, version control opgezet</t>
+    <t>Projecthandleiding en opdrachtdocument doorgelezen.</t>
+  </si>
+  <si>
+    <t>Maten van plattegrond geanalyseerd, class diagram geëxporteerd naar Java code, IDE's gesychroniseerd op versie, kennis Jmonkey opgefrist.</t>
+  </si>
+  <si>
+    <t>Analyse voortgezet (KD), afspraak met Wouter 'KD bekeken, tips gekregen' nieuwe afspraak 17-10-2014 11:00, version control opgezet.</t>
+  </si>
+  <si>
+    <t>Arjen Miedema             Datum</t>
+  </si>
+  <si>
+    <t>Scrum gehad over sprint 1 en begin sprint 2, projectplan opgesteld, verdere planning opgezet (sprints)</t>
+  </si>
+  <si>
+    <t>Scrum gehad over voortgang sprint 2, afspraak met Wouter 'database of list, analyse, projectplan, technisch document, pathfinding' nieuwe afspraak 20-10-2014 14:00, technisch document gemaakt</t>
   </si>
 </sst>
 </file>
@@ -379,7 +388,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -391,10 +400,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -402,7 +411,7 @@
         <v>41921</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -410,7 +419,7 @@
         <v>41922</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -418,7 +427,7 @@
         <v>41923</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -426,7 +435,7 @@
         <v>41924</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -441,15 +450,24 @@
       <c r="A8" s="1">
         <v>41926</v>
       </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>41929</v>
       </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>41930</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
